--- a/GV/REPORTES.xlsx
+++ b/GV/REPORTES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933E52CF-DB7C-44A2-B773-C7E5FE024067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12134D84-1F08-4B1D-B59F-EB1839BE669C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{6A163D50-54A5-4B89-AC11-0F1EA5E6CE4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{6A163D50-54A5-4B89-AC11-0F1EA5E6CE4D}"/>
   </bookViews>
   <sheets>
     <sheet name="CERDO" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="ANUAL CERDO" sheetId="7" r:id="rId7"/>
     <sheet name="CERDO MENSUAL" sheetId="8" r:id="rId8"/>
     <sheet name="INDICADORES FINANCIEROS" sheetId="4" r:id="rId9"/>
+    <sheet name="REPORTES GRAFICOS" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -783,6 +784,39 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -810,46 +844,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -860,7 +856,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1197,73 +1198,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="2:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1271,9 +1272,9 @@
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
@@ -1453,6 +1454,18 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5383928A-BEA9-41E6-99C0-1B12C1AF6E0F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1473,54 +1486,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="4"/>
       <c r="K3" s="3"/>
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1528,14 +1541,14 @@
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1543,8 +1556,8 @@
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
@@ -1717,7 +1730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B584D90C-2AC1-4DD7-AD3D-3E492BB17009}">
   <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1730,73 +1743,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
@@ -1973,205 +1986,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="16"/>
       <c r="D6" s="11" t="s">
         <v>123</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
-      <c r="B7" s="39"/>
-      <c r="D7" s="40"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="29" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="16" t="s">
         <v>130</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="16" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="16" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="16" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="16" t="s">
         <v>139</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C22" s="1"/>
@@ -2180,196 +2193,196 @@
       <c r="A23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="16" t="s">
         <v>149</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
     </row>
     <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="30" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="18" t="s">
         <v>107</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C44" s="1"/>
@@ -2378,73 +2391,73 @@
       <c r="A45" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2461,68 +2474,68 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="16" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2531,7 +2544,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="15"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
@@ -2578,10 +2591,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="16" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="1"/>
@@ -2598,10 +2611,10 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="16" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="1"/>
@@ -2618,10 +2631,10 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="16" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="1"/>
@@ -2638,10 +2651,10 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="16" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1"/>
@@ -2658,10 +2671,10 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="1"/>
@@ -2678,10 +2691,10 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="1"/>
@@ -2698,10 +2711,10 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="16" t="s">
         <v>107</v>
       </c>
       <c r="C15" s="1"/>
@@ -2718,10 +2731,10 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="1"/>
@@ -2738,10 +2751,10 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="16" t="s">
         <v>110</v>
       </c>
       <c r="C17" s="1"/>
@@ -2758,10 +2771,10 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="16" t="s">
         <v>94</v>
       </c>
       <c r="C18" s="1"/>
@@ -2778,10 +2791,10 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="1"/>
@@ -2798,10 +2811,10 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="1"/>
@@ -2818,10 +2831,10 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C21" s="1"/>
@@ -2841,7 +2854,7 @@
       <c r="A22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="16" t="s">
         <v>100</v>
       </c>
       <c r="C22" s="1"/>
@@ -2858,10 +2871,10 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="1"/>
@@ -2878,10 +2891,10 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="1"/>
@@ -2898,10 +2911,10 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="16" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="1"/>
@@ -2918,10 +2931,10 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="1"/>
@@ -2938,10 +2951,10 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="16" t="s">
         <v>121</v>
       </c>
       <c r="C27" s="1"/>
@@ -2958,10 +2971,10 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="1"/>
@@ -3004,63 +3017,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="16" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -3070,42 +3083,42 @@
     </row>
     <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="25" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C10" s="1"/>
@@ -3114,10 +3127,10 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="1"/>
@@ -3126,10 +3139,10 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="1"/>
@@ -3138,10 +3151,10 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="1"/>
@@ -3150,10 +3163,10 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="1"/>
@@ -3162,10 +3175,10 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="18" t="s">
         <v>107</v>
       </c>
       <c r="C15" s="1"/>
@@ -3174,10 +3187,10 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="1"/>
@@ -3186,10 +3199,10 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C17" s="1"/>
@@ -3198,10 +3211,10 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C18" s="1"/>
@@ -3210,10 +3223,10 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="1"/>
@@ -3222,10 +3235,10 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="1"/>
@@ -3234,10 +3247,10 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C21" s="1"/>
@@ -3249,7 +3262,7 @@
       <c r="A22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C22" s="1"/>
@@ -3258,10 +3271,10 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="1"/>
@@ -3270,10 +3283,10 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="1"/>
@@ -3282,10 +3295,10 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="1"/>
@@ -3294,10 +3307,10 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="1"/>
@@ -3306,10 +3319,10 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C27" s="1"/>
@@ -3318,10 +3331,10 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="1"/>
@@ -3362,63 +3375,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="16" t="s">
         <v>153</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3427,8 +3440,8 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
@@ -3475,10 +3488,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="16" t="s">
         <v>130</v>
       </c>
       <c r="C9" s="1"/>
@@ -3495,10 +3508,10 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="16" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="1"/>
@@ -3515,10 +3528,10 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="1"/>
@@ -3535,10 +3548,10 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="16" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="1"/>
@@ -3555,10 +3568,10 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="1"/>
@@ -3575,10 +3588,10 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="16" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="1"/>
@@ -3595,10 +3608,10 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="1"/>
@@ -3615,10 +3628,10 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="1"/>
@@ -3635,10 +3648,10 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="16" t="s">
         <v>139</v>
       </c>
       <c r="C17" s="1"/>
@@ -3655,10 +3668,10 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C18" s="1"/>
@@ -3675,10 +3688,10 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C19" s="1"/>
@@ -3695,10 +3708,10 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="1"/>
@@ -3715,10 +3728,10 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C21" s="1"/>
@@ -3738,7 +3751,7 @@
       <c r="A22" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C22" s="1"/>
@@ -3755,10 +3768,10 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="1"/>
@@ -3775,10 +3788,10 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="1"/>
@@ -3795,10 +3808,10 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="16" t="s">
         <v>149</v>
       </c>
       <c r="C25" s="1"/>
@@ -3815,10 +3828,10 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="1"/>
@@ -3835,10 +3848,10 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C27" s="1"/>
@@ -3855,10 +3868,10 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="1"/>
@@ -3900,63 +3913,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="16" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -3966,42 +3979,42 @@
     </row>
     <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="25" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="16" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="1"/>
@@ -4010,10 +4023,10 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="1"/>
@@ -4022,10 +4035,10 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="16" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="1"/>
@@ -4034,10 +4047,10 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="1"/>
@@ -4046,10 +4059,10 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="16" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="1"/>
@@ -4058,10 +4071,10 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="1"/>
@@ -4070,10 +4083,10 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="1"/>
@@ -4082,10 +4095,10 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="16" t="s">
         <v>139</v>
       </c>
       <c r="C17" s="1"/>
@@ -4094,10 +4107,10 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C18" s="1"/>
@@ -4106,10 +4119,10 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C19" s="1"/>
@@ -4118,10 +4131,10 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="1"/>
@@ -4130,10 +4143,10 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C21" s="1"/>
@@ -4145,7 +4158,7 @@
       <c r="A22" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C22" s="1"/>
@@ -4154,10 +4167,10 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="1"/>
@@ -4166,10 +4179,10 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C24" s="1"/>
@@ -4178,10 +4191,10 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="16" t="s">
         <v>149</v>
       </c>
       <c r="C25" s="1"/>
@@ -4190,10 +4203,10 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="1"/>
@@ -4202,10 +4215,10 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C27" s="1"/>
@@ -4214,10 +4227,10 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="1"/>
@@ -4251,56 +4264,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="1"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
@@ -4566,10 +4579,10 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="45"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">

--- a/GV/REPORTES.xlsx
+++ b/GV/REPORTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liype\Documents\GranjaVolantin\Granja\GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12134D84-1F08-4B1D-B59F-EB1839BE669C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2F0902-3A13-4E9F-AC8E-6A49A392D083}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{6A163D50-54A5-4B89-AC11-0F1EA5E6CE4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{6A163D50-54A5-4B89-AC11-0F1EA5E6CE4D}"/>
   </bookViews>
   <sheets>
     <sheet name="CERDO" sheetId="1" r:id="rId1"/>
@@ -841,12 +841,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,6 +848,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1461,7 +1461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5383928A-BEA9-41E6-99C0-1B12C1AF6E0F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -1986,26 +1986,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -2033,7 +2033,7 @@
       <c r="A5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="1"/>
@@ -2055,11 +2055,11 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
@@ -2253,11 +2253,11 @@
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
     </row>
     <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
@@ -2467,8 +2467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3073DAED-8F8B-4ED8-829B-877BF30A2E6E}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2479,26 +2479,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -3017,26 +3017,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -3375,26 +3375,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -3913,26 +3913,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -4253,7 +4253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5420F55F-2147-4DEE-B896-E21470925382}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="87" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -4264,26 +4264,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
